--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -50,46 +50,13 @@
     <t>Phạm Hữu Kỳ</t>
   </si>
   <si>
-    <t>Phamhuuky99@gmail.com</t>
-  </si>
-  <si>
-    <t>TRUNG BINH</t>
-  </si>
-  <si>
     <t>KHA</t>
   </si>
   <si>
-    <t>zcz</t>
-  </si>
-  <si>
-    <t>KEM</t>
-  </si>
-  <si>
     <t>asd</t>
   </si>
   <si>
     <t>asdasd</t>
-  </si>
-  <si>
-    <t>Huy Le Minh</t>
-  </si>
-  <si>
-    <t>sadasd</t>
-  </si>
-  <si>
-    <t>Huy Le Minh33</t>
-  </si>
-  <si>
-    <t>qqweqwe</t>
-  </si>
-  <si>
-    <t>xzczxczxc</t>
-  </si>
-  <si>
-    <t>Phạm Hữu Kỳ1111</t>
-  </si>
-  <si>
-    <t>sd</t>
   </si>
 </sst>
 </file>
@@ -425,7 +392,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +448,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -490,7 +457,7 @@
         <v>11123</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -506,11 +473,11 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>11123</v>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -527,376 +494,10 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>123</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>123</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>366</v>
-      </c>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>33</v>
-      </c>
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>123</v>
-      </c>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>2134</v>
-      </c>
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>123</v>
-      </c>
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>232323</v>
-      </c>
-      <c r="F16"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>2323</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>4234234</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23">
-        <v>11123</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -57,6 +57,27 @@
   </si>
   <si>
     <t>asdasd</t>
+  </si>
+  <si>
+    <t>0989717035</t>
+  </si>
+  <si>
+    <t>Huy ham hojc</t>
+  </si>
+  <si>
+    <t>PHP Trùm1</t>
+  </si>
+  <si>
+    <t>HUY TEST</t>
+  </si>
+  <si>
+    <t>HUY1</t>
+  </si>
+  <si>
+    <t>Khuong</t>
+  </si>
+  <si>
+    <t>TRUNG BINH</t>
   </si>
 </sst>
 </file>
@@ -392,7 +413,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +518,316 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>11123</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>2434</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>2323</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>8498971703</v>
+      </c>
+      <c r="E9">
+        <v>11123</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>8498971703</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>8498971703</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>8498971703</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>8498971703</v>
+      </c>
+      <c r="E13">
+        <v>123</v>
+      </c>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>8498971703</v>
+      </c>
+      <c r="E14">
+        <v>11123</v>
+      </c>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>8498971703</v>
+      </c>
+      <c r="E15">
+        <v>11123</v>
+      </c>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>8498971703</v>
+      </c>
+      <c r="E16">
+        <v>11123</v>
+      </c>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>8498971703</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>8498971703</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>8498971703</v>
+      </c>
+      <c r="E19">
+        <v>123</v>
+      </c>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>8498971703</v>
+      </c>
+      <c r="E20">
+        <v>11123</v>
+      </c>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>8498971703</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>8498911303</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
         <v>9</v>
       </c>
     </row>
